--- a/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_rf_st.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_rf_st.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>108.8450115680695</v>
+        <v>77.6228551864624</v>
       </c>
       <c r="C2">
-        <v>51.96264535485774</v>
+        <v>25.21725914045196</v>
       </c>
       <c r="D2">
-        <v>3.328586721420288</v>
+        <v>1.965634250640869</v>
       </c>
       <c r="E2">
-        <v>3.565381841373681</v>
+        <v>3.029777502691799</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -585,28 +585,28 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.8185328185328186</v>
+        <v>0.8599033816425121</v>
       </c>
       <c r="K2">
-        <v>0.8185328185328186</v>
+        <v>0.7632850241545893</v>
       </c>
       <c r="L2">
-        <v>0.8294573643410853</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="M2">
-        <v>0.7945736434108527</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="N2">
-        <v>0.8372093023255814</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="O2">
-        <v>0.8196611894286313</v>
+        <v>0.8113972140143521</v>
       </c>
       <c r="P2">
-        <v>0.01439328118332088</v>
+        <v>0.03199049397261269</v>
       </c>
       <c r="Q2">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>252.242062997818</v>
+        <v>203.9021026611328</v>
       </c>
       <c r="C3">
-        <v>101.3445983909001</v>
+        <v>61.38272530397684</v>
       </c>
       <c r="D3">
-        <v>3.69969654083252</v>
+        <v>4.653190326690674</v>
       </c>
       <c r="E3">
-        <v>2.267977141690497</v>
+        <v>1.820135436138837</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -638,28 +638,28 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.8262548262548263</v>
+        <v>0.8647342995169082</v>
       </c>
       <c r="K3">
-        <v>0.8185328185328186</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L3">
-        <v>0.8294573643410853</v>
+        <v>0.8019323671497585</v>
       </c>
       <c r="M3">
-        <v>0.7868217054263565</v>
+        <v>0.8067632850241546</v>
       </c>
       <c r="N3">
-        <v>0.8410852713178295</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="O3">
-        <v>0.8204303971745832</v>
+        <v>0.8094648468645935</v>
       </c>
       <c r="P3">
-        <v>0.01830398263732914</v>
+        <v>0.02932915841020034</v>
       </c>
       <c r="Q3">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>375.4013863086701</v>
+        <v>261.020954656601</v>
       </c>
       <c r="C4">
-        <v>152.6306133636569</v>
+        <v>3.381260484247084</v>
       </c>
       <c r="D4">
-        <v>4.740041351318359</v>
+        <v>3.880438232421875</v>
       </c>
       <c r="E4">
-        <v>3.129197927988788</v>
+        <v>2.338761664144501</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -691,28 +691,28 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.8223938223938224</v>
+        <v>0.8599033816425121</v>
       </c>
       <c r="K4">
-        <v>0.8146718146718147</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L4">
-        <v>0.8333333333333334</v>
+        <v>0.8019323671497585</v>
       </c>
       <c r="M4">
-        <v>0.7790697674418605</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="N4">
-        <v>0.8410852713178295</v>
+        <v>0.8009708737864077</v>
       </c>
       <c r="O4">
-        <v>0.8181108018317321</v>
+        <v>0.8114019042258807</v>
       </c>
       <c r="P4">
-        <v>0.02151243815813245</v>
+        <v>0.02599983722568187</v>
       </c>
       <c r="Q4">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>248.7383250236511</v>
+        <v>109.1619503974915</v>
       </c>
       <c r="C5">
-        <v>2.568214691187335</v>
+        <v>24.72895907677125</v>
       </c>
       <c r="D5">
-        <v>8.42899169921875</v>
+        <v>4.025311088562011</v>
       </c>
       <c r="E5">
-        <v>0.6333034060575294</v>
+        <v>1.761763690443096</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -744,28 +744,28 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.8108108108108109</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="K5">
-        <v>0.8223938223938224</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L5">
-        <v>0.8333333333333334</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="M5">
-        <v>0.7945736434108527</v>
+        <v>0.8309178743961353</v>
       </c>
       <c r="N5">
-        <v>0.8372093023255814</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="O5">
-        <v>0.8196641824548803</v>
+        <v>0.8123633975892313</v>
       </c>
       <c r="P5">
-        <v>0.01555663967699543</v>
+        <v>0.02287816915891802</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>499.2631404399872</v>
+        <v>374.3864275455475</v>
       </c>
       <c r="C6">
-        <v>2.917540854079525</v>
+        <v>3.777378674473959</v>
       </c>
       <c r="D6">
-        <v>7.152313089370727</v>
+        <v>8.308516359329223</v>
       </c>
       <c r="E6">
-        <v>0.7070491295500989</v>
+        <v>0.2985647394329722</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -797,28 +797,28 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.833976833976834</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="K6">
-        <v>0.8108108108108109</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L6">
-        <v>0.8410852713178295</v>
+        <v>0.8309178743961353</v>
       </c>
       <c r="M6">
-        <v>0.8023255813953488</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="N6">
-        <v>0.8410852713178295</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="O6">
-        <v>0.8258567537637305</v>
+        <v>0.8142957647389897</v>
       </c>
       <c r="P6">
-        <v>0.01618547292377482</v>
+        <v>0.02353814513025992</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>996.2546986579895</v>
+        <v>758.2784264087677</v>
       </c>
       <c r="C7">
-        <v>8.807820336484193</v>
+        <v>2.296851544985798</v>
       </c>
       <c r="D7">
-        <v>8.91095323562622</v>
+        <v>7.017413568496704</v>
       </c>
       <c r="E7">
-        <v>0.5049926939368687</v>
+        <v>0.6663336313236771</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -850,28 +850,28 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.8301158301158301</v>
+        <v>0.8502415458937198</v>
       </c>
       <c r="K7">
-        <v>0.806949806949807</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L7">
-        <v>0.8333333333333334</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="M7">
-        <v>0.7984496124031008</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="N7">
-        <v>0.8410852713178295</v>
+        <v>0.7912621359223301</v>
       </c>
       <c r="O7">
-        <v>0.8219867708239802</v>
+        <v>0.8084939730781858</v>
       </c>
       <c r="P7">
-        <v>0.01636879296677308</v>
+        <v>0.02450511600203195</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>340.7790358543396</v>
+        <v>264.9548079013824</v>
       </c>
       <c r="C8">
-        <v>3.596301868509782</v>
+        <v>4.076696860745341</v>
       </c>
       <c r="D8">
-        <v>7.873296403884888</v>
+        <v>8.226690435409546</v>
       </c>
       <c r="E8">
-        <v>0.6055694996195589</v>
+        <v>0.675409162877312</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -903,28 +903,28 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.8378378378378378</v>
+        <v>0.8454106280193237</v>
       </c>
       <c r="K8">
-        <v>0.806949806949807</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="L8">
-        <v>0.8255813953488372</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="M8">
-        <v>0.8023255813953488</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="N8">
-        <v>0.8372093023255814</v>
+        <v>0.7912621359223301</v>
       </c>
       <c r="O8">
-        <v>0.8219807847714824</v>
+        <v>0.8075277895033066</v>
       </c>
       <c r="P8">
-        <v>0.01489010133885827</v>
+        <v>0.02612010593098561</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>662.3395227909089</v>
+        <v>510.8243618011475</v>
       </c>
       <c r="C9">
-        <v>5.064898985883588</v>
+        <v>2.810269019161947</v>
       </c>
       <c r="D9">
-        <v>8.477192687988282</v>
+        <v>7.724337005615235</v>
       </c>
       <c r="E9">
-        <v>0.6526716629626664</v>
+        <v>1.147904031127964</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -956,28 +956,28 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.8301158301158301</v>
+        <v>0.8502415458937198</v>
       </c>
       <c r="K9">
-        <v>0.803088803088803</v>
+        <v>0.7729468599033816</v>
       </c>
       <c r="L9">
-        <v>0.8372093023255814</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="M9">
-        <v>0.8062015503875969</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="N9">
-        <v>0.8449612403100775</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="O9">
-        <v>0.8243153452455779</v>
+        <v>0.8113972140143521</v>
       </c>
       <c r="P9">
-        <v>0.01676203086153755</v>
+        <v>0.02621693827432681</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1300.682485151291</v>
+        <v>1003.234166288376</v>
       </c>
       <c r="C10">
-        <v>14.5377723748874</v>
+        <v>6.613483241370695</v>
       </c>
       <c r="D10">
-        <v>8.333157157897949</v>
+        <v>8.768446445465088</v>
       </c>
       <c r="E10">
-        <v>1.104459688188794</v>
+        <v>0.7454701977722488</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1009,28 +1009,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.8301158301158301</v>
+        <v>0.8599033816425121</v>
       </c>
       <c r="K10">
-        <v>0.806949806949807</v>
+        <v>0.7632850241545893</v>
       </c>
       <c r="L10">
-        <v>0.8410852713178295</v>
+        <v>0.8019323671497585</v>
       </c>
       <c r="M10">
-        <v>0.8023255813953488</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="N10">
-        <v>0.8488372093023255</v>
+        <v>0.8009708737864077</v>
       </c>
       <c r="O10">
-        <v>0.8258627398162283</v>
+        <v>0.8075371699263638</v>
       </c>
       <c r="P10">
-        <v>0.01838117159878966</v>
+        <v>0.03095629858560776</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>218.3084310531616</v>
+        <v>162.2665089607239</v>
       </c>
       <c r="C11">
-        <v>4.317686742804149</v>
+        <v>2.20256611232858</v>
       </c>
       <c r="D11">
-        <v>8.876750183105468</v>
+        <v>7.091119337081909</v>
       </c>
       <c r="E11">
-        <v>0.2156679635133378</v>
+        <v>0.6593728898643416</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1062,28 +1062,28 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.833976833976834</v>
+        <v>0.8357487922705314</v>
       </c>
       <c r="K11">
-        <v>0.806949806949807</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L11">
-        <v>0.8372093023255814</v>
+        <v>0.7922705314009661</v>
       </c>
       <c r="M11">
-        <v>0.8062015503875969</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="N11">
-        <v>0.8488372093023255</v>
+        <v>0.7912621359223301</v>
       </c>
       <c r="O11">
-        <v>0.826634940588429</v>
+        <v>0.8084939730781858</v>
       </c>
       <c r="P11">
-        <v>0.01710958317545343</v>
+        <v>0.02450511600203194</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>418.1349002361297</v>
+        <v>302.6987463474273</v>
       </c>
       <c r="C12">
-        <v>8.763318301534872</v>
+        <v>5.736248918380473</v>
       </c>
       <c r="D12">
-        <v>8.06141905784607</v>
+        <v>8.105653095245362</v>
       </c>
       <c r="E12">
-        <v>0.8648362629218932</v>
+        <v>0.734790816126132</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1115,28 +1115,28 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.833976833976834</v>
+        <v>0.8454106280193237</v>
       </c>
       <c r="K12">
-        <v>0.8108108108108109</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L12">
-        <v>0.8449612403100775</v>
+        <v>0.8067632850241546</v>
       </c>
       <c r="M12">
-        <v>0.7984496124031008</v>
+        <v>0.821256038647343</v>
       </c>
       <c r="N12">
-        <v>0.8410852713178295</v>
+        <v>0.7912621359223301</v>
       </c>
       <c r="O12">
-        <v>0.8258567537637305</v>
+        <v>0.809460156653065</v>
       </c>
       <c r="P12">
-        <v>0.01811273945413196</v>
+        <v>0.02232048949490386</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>818.3729494094848</v>
+        <v>594.1944978713989</v>
       </c>
       <c r="C13">
-        <v>14.56394461529085</v>
+        <v>8.818423129660703</v>
       </c>
       <c r="D13">
-        <v>8.658241510391235</v>
+        <v>8.724609088897704</v>
       </c>
       <c r="E13">
-        <v>0.6233734132361514</v>
+        <v>0.5722692529750859</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1168,28 +1168,28 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.833976833976834</v>
+        <v>0.8454106280193237</v>
       </c>
       <c r="K13">
-        <v>0.8185328185328186</v>
+        <v>0.7922705314009661</v>
       </c>
       <c r="L13">
-        <v>0.8488372093023255</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="M13">
-        <v>0.7984496124031008</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="N13">
-        <v>0.8488372093023255</v>
+        <v>0.8058252427184466</v>
       </c>
       <c r="O13">
-        <v>0.829726736703481</v>
+        <v>0.815271328736926</v>
       </c>
       <c r="P13">
-        <v>0.01924601756856863</v>
+        <v>0.01748888248297824</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>312.9527924060822</v>
+        <v>228.6206867694855</v>
       </c>
       <c r="C14">
-        <v>6.858551007411084</v>
+        <v>4.746590875183544</v>
       </c>
       <c r="D14">
-        <v>8.443489646911621</v>
+        <v>8.641078805923462</v>
       </c>
       <c r="E14">
-        <v>0.7484705668058655</v>
+        <v>0.4639357001437137</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1221,28 +1221,28 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.8185328185328186</v>
+        <v>0.8502415458937198</v>
       </c>
       <c r="K14">
-        <v>0.8378378378378378</v>
+        <v>0.7632850241545893</v>
       </c>
       <c r="L14">
-        <v>0.8333333333333334</v>
+        <v>0.821256038647343</v>
       </c>
       <c r="M14">
-        <v>0.8062015503875969</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="N14">
-        <v>0.8488372093023255</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="O14">
-        <v>0.8289485498787824</v>
+        <v>0.8084986632897143</v>
       </c>
       <c r="P14">
-        <v>0.01496474513883408</v>
+        <v>0.02867888509317052</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>610.489163017273</v>
+        <v>439.4480334758758</v>
       </c>
       <c r="C15">
-        <v>5.847702596424665</v>
+        <v>4.660741977933532</v>
       </c>
       <c r="D15">
-        <v>8.595754861831665</v>
+        <v>7.987415599822998</v>
       </c>
       <c r="E15">
-        <v>0.7588113884936722</v>
+        <v>0.5758491219154959</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1274,28 +1274,28 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.833976833976834</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="K15">
-        <v>0.8108108108108109</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="L15">
-        <v>0.8333333333333334</v>
+        <v>0.821256038647343</v>
       </c>
       <c r="M15">
-        <v>0.810077519379845</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="N15">
-        <v>0.8527131782945736</v>
+        <v>0.7864077669902912</v>
       </c>
       <c r="O15">
-        <v>0.8281823351590794</v>
+        <v>0.8094554664415365</v>
       </c>
       <c r="P15">
-        <v>0.01607125058146287</v>
+        <v>0.03002962790188313</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1219.794072008133</v>
+        <v>886.8488007068634</v>
       </c>
       <c r="C16">
-        <v>14.5579996417235</v>
+        <v>8.446431547847936</v>
       </c>
       <c r="D16">
-        <v>9.379460859298707</v>
+        <v>8.73795804977417</v>
       </c>
       <c r="E16">
-        <v>0.06148181797176946</v>
+        <v>0.6824531028620078</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1327,28 +1327,28 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.8416988416988417</v>
+        <v>0.8502415458937198</v>
       </c>
       <c r="K16">
-        <v>0.8223938223938224</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L16">
-        <v>0.8410852713178295</v>
+        <v>0.821256038647343</v>
       </c>
       <c r="M16">
-        <v>0.8023255813953488</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="N16">
-        <v>0.8527131782945736</v>
+        <v>0.8009708737864077</v>
       </c>
       <c r="O16">
-        <v>0.8320433390200833</v>
+        <v>0.8133342713756392</v>
       </c>
       <c r="P16">
-        <v>0.01776786884605325</v>
+        <v>0.02247150974390803</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>415.5448092937469</v>
+        <v>302.1938258647918</v>
       </c>
       <c r="C17">
-        <v>7.039331512423677</v>
+        <v>3.509806120203205</v>
       </c>
       <c r="D17">
-        <v>8.212915325164795</v>
+        <v>8.425672769546509</v>
       </c>
       <c r="E17">
-        <v>0.5373549239517101</v>
+        <v>0.512369940058931</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1380,28 +1380,28 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.833976833976834</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="K17">
-        <v>0.806949806949807</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L17">
-        <v>0.8527131782945736</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="M17">
-        <v>0.8217054263565892</v>
+        <v>0.8067632850241546</v>
       </c>
       <c r="N17">
-        <v>0.8449612403100775</v>
+        <v>0.7864077669902912</v>
       </c>
       <c r="O17">
-        <v>0.8320612971775763</v>
+        <v>0.8113878335912951</v>
       </c>
       <c r="P17">
-        <v>0.01633651743574493</v>
+        <v>0.02682551056725409</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>814.6507378101348</v>
+        <v>585.2999981880188</v>
       </c>
       <c r="C18">
-        <v>7.350080549379031</v>
+        <v>8.49626893454397</v>
       </c>
       <c r="D18">
-        <v>8.690031909942627</v>
+        <v>8.476382446289062</v>
       </c>
       <c r="E18">
-        <v>0.356670081341413</v>
+        <v>0.6654214842292272</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1433,28 +1433,28 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.8223938223938224</v>
+        <v>0.8502415458937198</v>
       </c>
       <c r="K18">
-        <v>0.8146718146718147</v>
+        <v>0.7729468599033816</v>
       </c>
       <c r="L18">
-        <v>0.8527131782945736</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="M18">
-        <v>0.8372093023255814</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="N18">
-        <v>0.8488372093023255</v>
+        <v>0.8009708737864077</v>
       </c>
       <c r="O18">
-        <v>0.8351650653976236</v>
+        <v>0.8104357206510014</v>
       </c>
       <c r="P18">
-        <v>0.0147113606643683</v>
+        <v>0.02496684491287243</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1601.812399530411</v>
+        <v>1148.148290491104</v>
       </c>
       <c r="C19">
-        <v>20.60522051071562</v>
+        <v>11.86341164050098</v>
       </c>
       <c r="D19">
-        <v>9.276683473587036</v>
+        <v>8.346687889099121</v>
       </c>
       <c r="E19">
-        <v>0.7952962191531757</v>
+        <v>0.7339025890407466</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1486,28 +1486,28 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.8378378378378378</v>
+        <v>0.8454106280193237</v>
       </c>
       <c r="K19">
-        <v>0.8146718146718147</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L19">
-        <v>0.8643410852713178</v>
+        <v>0.8067632850241546</v>
       </c>
       <c r="M19">
-        <v>0.8333333333333334</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="N19">
-        <v>0.8565891472868217</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="O19">
-        <v>0.8413546436802252</v>
+        <v>0.8084986632897143</v>
       </c>
       <c r="P19">
-        <v>0.01760198457030564</v>
+        <v>0.02096995620017008</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>219.0672258853912</v>
+        <v>160.8452633857727</v>
       </c>
       <c r="C20">
-        <v>3.67835496662511</v>
+        <v>2.162295837650024</v>
       </c>
       <c r="D20">
-        <v>8.917168283462525</v>
+        <v>8.511409950256347</v>
       </c>
       <c r="E20">
-        <v>0.2148257843550142</v>
+        <v>0.5993499232559092</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1539,28 +1539,28 @@
         <v>34</v>
       </c>
       <c r="J20">
-        <v>0.8301158301158301</v>
+        <v>0.8357487922705314</v>
       </c>
       <c r="K20">
-        <v>0.8108108108108109</v>
+        <v>0.7874396135265701</v>
       </c>
       <c r="L20">
-        <v>0.8294573643410853</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="M20">
-        <v>0.8023255813953488</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="N20">
-        <v>0.8449612403100775</v>
+        <v>0.7864077669902912</v>
       </c>
       <c r="O20">
-        <v>0.8235341653946305</v>
+        <v>0.8065569157168989</v>
       </c>
       <c r="P20">
-        <v>0.01516054037832382</v>
+        <v>0.0204668191648413</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>422.2840496063233</v>
+        <v>309.4857921123505</v>
       </c>
       <c r="C21">
-        <v>9.86090123802599</v>
+        <v>7.147057209382893</v>
       </c>
       <c r="D21">
-        <v>8.993963479995728</v>
+        <v>8.955259227752686</v>
       </c>
       <c r="E21">
-        <v>0.482096454037574</v>
+        <v>0.4021113851810488</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1592,28 +1592,28 @@
         <v>35</v>
       </c>
       <c r="J21">
-        <v>0.833976833976834</v>
+        <v>0.8502415458937198</v>
       </c>
       <c r="K21">
-        <v>0.8108108108108109</v>
+        <v>0.7874396135265701</v>
       </c>
       <c r="L21">
-        <v>0.8410852713178295</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="M21">
-        <v>0.8023255813953488</v>
+        <v>0.821256038647343</v>
       </c>
       <c r="N21">
-        <v>0.8449612403100775</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="O21">
-        <v>0.8266319475621801</v>
+        <v>0.8133295811641105</v>
       </c>
       <c r="P21">
-        <v>0.01697007189736989</v>
+        <v>0.02188567488781585</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>817.9569062232971</v>
+        <v>592.337619972229</v>
       </c>
       <c r="C22">
-        <v>14.3868694292455</v>
+        <v>8.993634159790147</v>
       </c>
       <c r="D22">
-        <v>9.259631633758545</v>
+        <v>8.559910917282105</v>
       </c>
       <c r="E22">
-        <v>0.4269210038440261</v>
+        <v>0.6097088052759287</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1645,28 +1645,28 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>0.8223938223938224</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="K22">
-        <v>0.8185328185328186</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L22">
-        <v>0.8449612403100775</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="M22">
-        <v>0.7984496124031008</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="N22">
-        <v>0.8488372093023255</v>
+        <v>0.8106796116504854</v>
       </c>
       <c r="O22">
-        <v>0.826634940588429</v>
+        <v>0.812377468223817</v>
       </c>
       <c r="P22">
-        <v>0.01847613697606214</v>
+        <v>0.01844682076928649</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>313.9354421138763</v>
+        <v>230.3551019191742</v>
       </c>
       <c r="C23">
-        <v>4.899155211149335</v>
+        <v>3.24785622825376</v>
       </c>
       <c r="D23">
-        <v>8.762304449081421</v>
+        <v>7.959748315811157</v>
       </c>
       <c r="E23">
-        <v>0.5700947979303866</v>
+        <v>0.4118511739237352</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1698,28 +1698,28 @@
         <v>37</v>
       </c>
       <c r="J23">
-        <v>0.8146718146718147</v>
+        <v>0.8502415458937198</v>
       </c>
       <c r="K23">
-        <v>0.833976833976834</v>
+        <v>0.7632850241545893</v>
       </c>
       <c r="L23">
-        <v>0.8294573643410853</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="M23">
-        <v>0.8062015503875969</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="N23">
-        <v>0.8449612403100775</v>
+        <v>0.7912621359223301</v>
       </c>
       <c r="O23">
-        <v>0.8258537607374817</v>
+        <v>0.8065616059284274</v>
       </c>
       <c r="P23">
-        <v>0.01382252757532106</v>
+        <v>0.02876626296625429</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>610.1592264652252</v>
+        <v>442.4787497997284</v>
       </c>
       <c r="C24">
-        <v>5.189668470954005</v>
+        <v>4.672097291439886</v>
       </c>
       <c r="D24">
-        <v>9.250725555419923</v>
+        <v>7.992104244232178</v>
       </c>
       <c r="E24">
-        <v>0.1215338172642514</v>
+        <v>0.3783871084956804</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1751,28 +1751,28 @@
         <v>38</v>
       </c>
       <c r="J24">
-        <v>0.8262548262548263</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="K24">
-        <v>0.8108108108108109</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="L24">
-        <v>0.8294573643410853</v>
+        <v>0.821256038647343</v>
       </c>
       <c r="M24">
-        <v>0.8062015503875969</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="N24">
-        <v>0.8488372093023255</v>
+        <v>0.7912621359223301</v>
       </c>
       <c r="O24">
-        <v>0.824312352219329</v>
+        <v>0.8104263402279444</v>
       </c>
       <c r="P24">
-        <v>0.01511294632722029</v>
+        <v>0.0293393272092878</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1233.349379682541</v>
+        <v>880.3759675979614</v>
       </c>
       <c r="C25">
-        <v>14.7192421689594</v>
+        <v>9.877173174732373</v>
       </c>
       <c r="D25">
-        <v>8.994308900833129</v>
+        <v>8.28165545463562</v>
       </c>
       <c r="E25">
-        <v>0.9275203871458946</v>
+        <v>0.7137073167133355</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1804,25 +1804,25 @@
         <v>39</v>
       </c>
       <c r="J25">
-        <v>0.8378378378378378</v>
+        <v>0.8454106280193237</v>
       </c>
       <c r="K25">
-        <v>0.8146718146718147</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L25">
-        <v>0.8488372093023255</v>
+        <v>0.821256038647343</v>
       </c>
       <c r="M25">
-        <v>0.7984496124031008</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="N25">
-        <v>0.8488372093023255</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="O25">
-        <v>0.829726736703481</v>
+        <v>0.8113972140143521</v>
       </c>
       <c r="P25">
-        <v>0.02000559656393744</v>
+        <v>0.02152406291553536</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>420.393240404129</v>
+        <v>299.8757895469665</v>
       </c>
       <c r="C26">
-        <v>10.67578554454098</v>
+        <v>3.470360140619704</v>
       </c>
       <c r="D26">
-        <v>8.93310284614563</v>
+        <v>8.081289720535278</v>
       </c>
       <c r="E26">
-        <v>0.1338976375014207</v>
+        <v>0.9414834892351096</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1857,28 +1857,28 @@
         <v>40</v>
       </c>
       <c r="J26">
-        <v>0.8301158301158301</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="K26">
-        <v>0.8108108108108109</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L26">
-        <v>0.8449612403100775</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="M26">
-        <v>0.8294573643410853</v>
+        <v>0.8067632850241546</v>
       </c>
       <c r="N26">
-        <v>0.8488372093023255</v>
+        <v>0.7815533980582524</v>
       </c>
       <c r="O26">
-        <v>0.8328364909760259</v>
+        <v>0.8104169598048874</v>
       </c>
       <c r="P26">
-        <v>0.01346836005193415</v>
+        <v>0.02778278935819198</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>810.087132692337</v>
+        <v>581.5317127227784</v>
       </c>
       <c r="C27">
-        <v>8.191220288086118</v>
+        <v>6.589673798724474</v>
       </c>
       <c r="D27">
-        <v>7.910431146621704</v>
+        <v>7.256599187850952</v>
       </c>
       <c r="E27">
-        <v>1.37851809283621</v>
+        <v>0.9633498178150595</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1910,28 +1910,28 @@
         <v>41</v>
       </c>
       <c r="J27">
-        <v>0.8223938223938224</v>
+        <v>0.8502415458937198</v>
       </c>
       <c r="K27">
-        <v>0.8146718146718147</v>
+        <v>0.7729468599033816</v>
       </c>
       <c r="L27">
-        <v>0.8565891472868217</v>
+        <v>0.8019323671497585</v>
       </c>
       <c r="M27">
-        <v>0.8410852713178295</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="N27">
-        <v>0.8488372093023255</v>
+        <v>0.8058252427184466</v>
       </c>
       <c r="O27">
-        <v>0.8367154529945229</v>
+        <v>0.8094742272876507</v>
       </c>
       <c r="P27">
-        <v>0.01582420365486679</v>
+        <v>0.02495889619884606</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1098.775975322723</v>
+        <v>782.1504106521606</v>
       </c>
       <c r="C28">
-        <v>164.8534108638078</v>
+        <v>114.3907472799154</v>
       </c>
       <c r="D28">
-        <v>2.522150754928589</v>
+        <v>2.266705751419067</v>
       </c>
       <c r="E28">
-        <v>1.756436336111151</v>
+        <v>1.586865853523676</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -1963,28 +1963,28 @@
         <v>42</v>
       </c>
       <c r="J28">
-        <v>0.8262548262548263</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="K28">
-        <v>0.8146718146718147</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L28">
-        <v>0.8643410852713178</v>
+        <v>0.8067632850241546</v>
       </c>
       <c r="M28">
-        <v>0.8333333333333334</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="N28">
-        <v>0.8565891472868217</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="O28">
-        <v>0.8390380413636228</v>
+        <v>0.8075324797148351</v>
       </c>
       <c r="P28">
-        <v>0.01864377985038057</v>
+        <v>0.0192910766356359</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
